--- a/JiJin.xlsx
+++ b/JiJin.xlsx
@@ -1663,8 +1663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A135" sqref="A135:XFD135"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.59765625" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -1963,10 +1963,10 @@
         <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>58</v>
+        <v>306</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="E16"/>
       <c r="F16" s="2"/>
@@ -1982,10 +1982,10 @@
         <v>134</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>304</v>
+        <v>58</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="E17"/>
       <c r="F17" s="2"/>
@@ -2001,10 +2001,10 @@
         <v>136</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="E18"/>
       <c r="F18" s="2"/>
@@ -2020,10 +2020,10 @@
         <v>68</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="E19"/>
       <c r="F19" s="2"/>
@@ -2039,10 +2039,10 @@
         <v>70</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>114</v>
+        <v>303</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="E20"/>
       <c r="F20" s="2"/>
@@ -2058,10 +2058,10 @@
         <v>131</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>295</v>
+        <v>132</v>
       </c>
       <c r="E21"/>
       <c r="F21" s="1"/>
@@ -2077,10 +2077,10 @@
         <v>72</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>270</v>
+        <v>114</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>271</v>
+        <v>26</v>
       </c>
       <c r="E22"/>
       <c r="H22" s="1"/>
@@ -2094,10 +2094,10 @@
         <v>74</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>183</v>
+        <v>294</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>184</v>
+        <v>295</v>
       </c>
       <c r="E23"/>
       <c r="H23" s="1"/>
@@ -2111,11 +2111,12 @@
         <v>138</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>88</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="E24"/>
       <c r="G24" s="1"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -2128,11 +2129,12 @@
         <v>230</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>306</v>
+        <v>183</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>143</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="E25"/>
       <c r="G25" s="1"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -3946,6 +3948,9 @@
       <c r="B264" s="1"/>
     </row>
   </sheetData>
+  <sortState ref="C15:D25">
+    <sortCondition descending="1" ref="D25"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/JiJin.xlsx
+++ b/JiJin.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="319">
   <si>
     <t>代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1273,6 +1273,27 @@
   </si>
   <si>
     <t>000756</t>
+  </si>
+  <si>
+    <t>003298</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>013851</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉实物流产业股票A</t>
+  </si>
+  <si>
+    <t>中信建投低碳成长混合A</t>
+  </si>
+  <si>
+    <t>519185</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万家精选混合A</t>
   </si>
 </sst>
 </file>
@@ -1351,12 +1372,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1371,7 +1398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1386,6 +1413,7 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1661,10 +1689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z264"/>
+  <dimension ref="A1:Z253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D155" sqref="D155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.59765625" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -2113,7 +2141,7 @@
       <c r="C24" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="10" t="s">
         <v>271</v>
       </c>
       <c r="E24"/>
@@ -3432,16 +3460,28 @@
       </c>
     </row>
     <row r="136" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
+      <c r="A136" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="137" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
+      <c r="A137" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="138" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
+      <c r="A138" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="139" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
@@ -3479,7 +3519,7 @@
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
     </row>
-    <row r="148" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
     </row>
@@ -3902,50 +3942,6 @@
     <row r="253" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
-    </row>
-    <row r="254" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A254" s="1"/>
-      <c r="B254" s="1"/>
-    </row>
-    <row r="255" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A255" s="1"/>
-      <c r="B255" s="1"/>
-    </row>
-    <row r="256" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A256" s="1"/>
-      <c r="B256" s="1"/>
-    </row>
-    <row r="257" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A257" s="1"/>
-      <c r="B257" s="1"/>
-    </row>
-    <row r="258" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A258" s="1"/>
-      <c r="B258" s="1"/>
-    </row>
-    <row r="259" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A259" s="1"/>
-      <c r="B259" s="1"/>
-    </row>
-    <row r="260" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A260" s="1"/>
-      <c r="B260" s="1"/>
-    </row>
-    <row r="261" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A261" s="1"/>
-      <c r="B261" s="1"/>
-    </row>
-    <row r="262" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A262" s="1"/>
-      <c r="B262" s="1"/>
-    </row>
-    <row r="263" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A263" s="1"/>
-      <c r="B263" s="1"/>
-    </row>
-    <row r="264" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A264" s="1"/>
-      <c r="B264" s="1"/>
     </row>
   </sheetData>
   <sortState ref="C15:D25">

--- a/JiJin.xlsx
+++ b/JiJin.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16180" yWindow="1520" windowWidth="16220" windowHeight="16840"/>
+    <workbookView xWindow="15860" yWindow="3700" windowWidth="16220" windowHeight="16840"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="336">
   <si>
     <t>代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1294,13 +1294,80 @@
   </si>
   <si>
     <t>万家精选混合A</t>
+  </si>
+  <si>
+    <t>001473</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建信大安全战略精选股票</t>
+  </si>
+  <si>
+    <t>-38%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-34%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-36%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-54%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-37%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-46%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-36%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-14%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-13%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-27%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-38%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-36%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-41%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-31%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-33%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <b/>
       <sz val="10"/>
@@ -1371,6 +1438,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="DengXian Light"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1398,7 +1472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1414,6 +1488,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1689,10 +1764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z253"/>
+  <dimension ref="A1:Z242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D155" sqref="D155"/>
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.59765625" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -1892,7 +1967,7 @@
       <c r="D10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="1"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1911,8 +1986,8 @@
       <c r="D11" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -1930,8 +2005,8 @@
       <c r="D12" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1943,8 +2018,8 @@
       <c r="B13" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1958,8 +2033,8 @@
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1971,14 +2046,7 @@
       <c r="B15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E15"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="1"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1996,8 +2064,10 @@
       <c r="D16" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E16"/>
-      <c r="F16" s="2"/>
+      <c r="E16" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F16" s="1"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -2015,8 +2085,10 @@
       <c r="D17" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E17"/>
-      <c r="F17" s="2"/>
+      <c r="E17" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F17" s="1"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -2034,8 +2106,10 @@
       <c r="D18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E18"/>
-      <c r="F18" s="2"/>
+      <c r="E18" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F18" s="1"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -2053,8 +2127,10 @@
       <c r="D19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E19"/>
-      <c r="F19" s="2"/>
+      <c r="E19" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F19" s="1"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -2072,8 +2148,10 @@
       <c r="D20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E20"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F20" s="1"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -2086,12 +2164,14 @@
         <v>131</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>301</v>
+        <v>106</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21"/>
+        <v>107</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>332</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="2"/>
@@ -2105,12 +2185,15 @@
         <v>72</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>114</v>
+        <v>301</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22"/>
+        <v>132</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
@@ -2122,12 +2205,15 @@
         <v>74</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E23"/>
+        <v>199</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
@@ -2139,12 +2225,15 @@
         <v>138</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="E24"/>
+        <v>220</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -2157,12 +2246,15 @@
         <v>230</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>183</v>
+        <v>114</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E25"/>
+        <v>26</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -2174,8 +2266,16 @@
       <c r="B26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F26" s="1"/>
       <c r="G26" s="4"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -2187,8 +2287,16 @@
       <c r="B27" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F27" s="1"/>
       <c r="G27" s="4"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -2200,7 +2308,16 @@
       <c r="B28" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F28" s="1"/>
       <c r="G28" s="4"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -2212,7 +2329,16 @@
       <c r="B29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F29" s="1"/>
       <c r="G29" s="4"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -2224,9 +2350,15 @@
       <c r="B30" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>330</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="4"/>
       <c r="H30" s="2"/>
@@ -2355,6 +2487,7 @@
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
@@ -2363,9 +2496,7 @@
       <c r="B38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="2"/>
+      <c r="E38" s="1"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -2378,9 +2509,7 @@
       <c r="B39" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="2"/>
+      <c r="E39" s="1"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -2393,9 +2522,7 @@
       <c r="B40" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="2"/>
+      <c r="E40" s="1"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -2408,7 +2535,8 @@
       <c r="B41" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E41" s="2"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -2421,6 +2549,8 @@
       <c r="B42" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -2429,6 +2559,8 @@
       <c r="B43" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
@@ -2437,7 +2569,9 @@
       <c r="B44" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="C44" s="1"/>
       <c r="D44" s="1"/>
+      <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -2446,37 +2580,41 @@
       <c r="B45" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C45" s="1"/>
       <c r="D45" s="1"/>
+      <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
+      <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+        <v>95</v>
+      </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -2485,13 +2623,11 @@
     </row>
     <row r="49" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+        <v>126</v>
+      </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -2500,10 +2636,10 @@
     </row>
     <row r="50" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2515,11 +2651,13 @@
     </row>
     <row r="51" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>97</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -2528,11 +2666,13 @@
     </row>
     <row r="52" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -2541,10 +2681,10 @@
     </row>
     <row r="53" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -2554,10 +2694,10 @@
     </row>
     <row r="54" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2569,13 +2709,13 @@
     </row>
     <row r="55" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -2584,13 +2724,13 @@
     </row>
     <row r="56" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+        <v>103</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -2599,11 +2739,13 @@
     </row>
     <row r="57" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>103</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -2612,13 +2754,13 @@
     </row>
     <row r="58" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -2627,14 +2769,13 @@
     </row>
     <row r="59" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
@@ -2642,10 +2783,10 @@
     </row>
     <row r="60" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -2657,13 +2798,11 @@
     </row>
     <row r="61" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
+        <v>112</v>
+      </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -2672,28 +2811,20 @@
     </row>
     <row r="62" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
+        <v>198</v>
+      </c>
       <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
+        <v>203</v>
+      </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -2702,23 +2833,24 @@
     </row>
     <row r="64" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
+        <v>207</v>
+      </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -2727,13 +2859,11 @@
     </row>
     <row r="66" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
+        <v>209</v>
+      </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -2742,11 +2872,13 @@
     </row>
     <row r="67" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>205</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -2755,11 +2887,13 @@
     </row>
     <row r="68" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>207</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -2768,10 +2902,10 @@
     </row>
     <row r="69" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -2781,11 +2915,13 @@
     </row>
     <row r="70" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>211</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
@@ -2794,11 +2930,12 @@
     </row>
     <row r="71" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>213</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="C71" s="1"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -2807,11 +2944,12 @@
     </row>
     <row r="72" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>214</v>
+        <v>161</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>215</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="C72" s="1"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -2820,13 +2958,11 @@
     </row>
     <row r="73" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
+        <v>223</v>
+      </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -2835,13 +2971,11 @@
     </row>
     <row r="74" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
+        <v>225</v>
+      </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
@@ -2850,13 +2984,11 @@
     </row>
     <row r="75" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
+        <v>227</v>
+      </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -2865,10 +2997,10 @@
     </row>
     <row r="76" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -2878,13 +3010,11 @@
     </row>
     <row r="77" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>222</v>
+        <v>113</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
+        <v>34</v>
+      </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
@@ -2893,12 +3023,11 @@
     </row>
     <row r="78" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>224</v>
+        <v>116</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C78" s="1"/>
+        <v>117</v>
+      </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
@@ -2907,12 +3036,11 @@
     </row>
     <row r="79" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>226</v>
+        <v>148</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C79" s="1"/>
+        <v>149</v>
+      </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
@@ -2921,12 +3049,11 @@
     </row>
     <row r="80" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E80" s="2"/>
+        <v>146</v>
+      </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -2934,12 +3061,11 @@
     </row>
     <row r="81" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>113</v>
+        <v>167</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E81" s="2"/>
+        <v>168</v>
+      </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
@@ -2947,12 +3073,12 @@
     </row>
     <row r="82" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E82" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="E82" s="6"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
@@ -2960,550 +3086,514 @@
     </row>
     <row r="83" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="E83" s="6"/>
     </row>
     <row r="84" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="E84" s="6"/>
     </row>
     <row r="85" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="E85" s="6"/>
+      <c r="G85" s="7"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
     </row>
     <row r="86" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="E86" s="6"/>
+      <c r="G86" s="7"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
     </row>
     <row r="87" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>130</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="E87" s="6"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
     </row>
     <row r="88" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>163</v>
+      <c r="A88" s="1">
+        <v>166801</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>164</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="E88" s="6"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
     </row>
     <row r="89" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>166</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G89" s="7"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E90" s="6"/>
+        <v>182</v>
+      </c>
       <c r="G90" s="7"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
     </row>
     <row r="91" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E91" s="6"/>
+        <v>186</v>
+      </c>
       <c r="G91" s="7"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
     </row>
     <row r="92" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E92" s="6"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
+        <v>188</v>
+      </c>
     </row>
     <row r="93" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E93" s="6"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="E93" s="2"/>
     </row>
     <row r="94" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
-        <v>166801</v>
+      <c r="A94" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E94" s="6"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="E94" s="2"/>
     </row>
     <row r="95" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>179</v>
+        <v>231</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E95" s="6"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="E95" s="2"/>
     </row>
     <row r="96" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E96" s="6"/>
-      <c r="G96" s="7"/>
+        <v>194</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
     </row>
     <row r="97" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>185</v>
+        <v>232</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E97" s="6"/>
-      <c r="G97" s="7"/>
+        <v>195</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
     </row>
     <row r="98" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>187</v>
+        <v>233</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>188</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
     </row>
     <row r="99" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>189</v>
+        <v>235</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>190</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
     </row>
     <row r="100" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>192</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
     </row>
     <row r="101" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>193</v>
+        <v>240</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>175</v>
+        <v>243</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
+        <v>244</v>
+      </c>
     </row>
     <row r="103" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
+        <v>245</v>
+      </c>
     </row>
     <row r="104" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
+        <v>247</v>
+      </c>
     </row>
     <row r="105" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
+        <v>249</v>
+      </c>
     </row>
     <row r="106" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
+        <v>251</v>
+      </c>
     </row>
     <row r="107" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>196</v>
+        <v>256</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>265</v>
+        <v>307</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>268</v>
+        <v>313</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>269</v>
+        <v>314</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>309</v>
+        <v>8</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>262</v>
+        <v>163</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>312</v>
+        <v>241</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A137" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A138" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+      <c r="C135" s="11"/>
+    </row>
+    <row r="136" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+    </row>
+    <row r="137" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+    </row>
+    <row r="138" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+    </row>
+    <row r="139" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
     </row>
-    <row r="140" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
     </row>
-    <row r="141" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
     </row>
-    <row r="142" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
     </row>
-    <row r="143" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
     </row>
-    <row r="144" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
     </row>
@@ -3519,7 +3609,7 @@
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
     </row>
-    <row r="148" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
     </row>
@@ -3898,50 +3988,6 @@
     <row r="242" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
-    </row>
-    <row r="243" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A243" s="1"/>
-      <c r="B243" s="1"/>
-    </row>
-    <row r="244" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A244" s="1"/>
-      <c r="B244" s="1"/>
-    </row>
-    <row r="245" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A245" s="1"/>
-      <c r="B245" s="1"/>
-    </row>
-    <row r="246" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A246" s="1"/>
-      <c r="B246" s="1"/>
-    </row>
-    <row r="247" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A247" s="1"/>
-      <c r="B247" s="1"/>
-    </row>
-    <row r="248" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A248" s="1"/>
-      <c r="B248" s="1"/>
-    </row>
-    <row r="249" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A249" s="1"/>
-      <c r="B249" s="1"/>
-    </row>
-    <row r="250" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A250" s="1"/>
-      <c r="B250" s="1"/>
-    </row>
-    <row r="251" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A251" s="1"/>
-      <c r="B251" s="1"/>
-    </row>
-    <row r="252" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A252" s="1"/>
-      <c r="B252" s="1"/>
-    </row>
-    <row r="253" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A253" s="1"/>
-      <c r="B253" s="1"/>
     </row>
   </sheetData>
   <sortState ref="C15:D25">

--- a/JiJin.xlsx
+++ b/JiJin.xlsx
@@ -1766,8 +1766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D139" sqref="D139"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.59765625" defaultRowHeight="17" x14ac:dyDescent="0.15"/>

--- a/JiJin.xlsx
+++ b/JiJin.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="337">
   <si>
     <t>代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1360,6 +1360,10 @@
   </si>
   <si>
     <t>-33%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-23%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1766,8 +1770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.59765625" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -2371,9 +2375,15 @@
       <c r="B31" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>336</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="4"/>
       <c r="H31" s="2"/>
@@ -3536,14 +3546,6 @@
         <v>89</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
     <row r="134" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>200</v>

--- a/JiJin.xlsx
+++ b/JiJin.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15860" yWindow="3700" windowWidth="16220" windowHeight="16840"/>
+    <workbookView xWindow="16800" yWindow="1880" windowWidth="16220" windowHeight="16840"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="339">
   <si>
     <t>代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1365,6 +1365,12 @@
   <si>
     <t>-23%</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商专精特新股票A</t>
+  </si>
+  <si>
+    <t>014185</t>
   </si>
 </sst>
 </file>
@@ -1768,10 +1774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z242"/>
+  <dimension ref="A1:Z239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.59765625" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -3546,28 +3552,36 @@
         <v>89</v>
       </c>
     </row>
+    <row r="133" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
     <row r="134" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+      <c r="C134" s="11"/>
+    </row>
+    <row r="135" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>241</v>
+        <v>338</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C135" s="11"/>
+        <v>337</v>
+      </c>
     </row>
     <row r="136" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
     </row>
-    <row r="137" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
     </row>
@@ -3978,18 +3992,6 @@
     <row r="239" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
-    </row>
-    <row r="240" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A240" s="1"/>
-      <c r="B240" s="1"/>
-    </row>
-    <row r="241" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A241" s="1"/>
-      <c r="B241" s="1"/>
-    </row>
-    <row r="242" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A242" s="1"/>
-      <c r="B242" s="1"/>
     </row>
   </sheetData>
   <sortState ref="C15:D25">

--- a/JiJin.xlsx
+++ b/JiJin.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="1880" windowWidth="16220" windowHeight="16840"/>
+    <workbookView xWindow="16740" yWindow="8700" windowWidth="16220" windowHeight="12440"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="341">
   <si>
     <t>代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,35 +62,1290 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>永赢竞争力精选混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>007549</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中泰开阳价值优选混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005668</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>009707</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达新经济灵活配置混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>006527</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国优质发展混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005855</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中科沃土沃瑞混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>007355</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大成纳斯达克100指数(QDII)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001487</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001279</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中海积极增利混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前海开源公共卫生股票A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010322</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>007203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国红利精选混合(QDII)人民币</t>
+  </si>
+  <si>
+    <t>信达澳银新能源精选混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001224</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中邮新思路灵活配置混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001856</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹏华创新成长混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>007139</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国民裕进取沪港深成长精选混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>012079</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000834</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>009108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>006373</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>008763</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天弘越南市场A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>009975</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华宝美国消费C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国REIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标普科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达环保主题灵活配置混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中融策略优选混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003745</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>006348</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银华盛利混合发起式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>006751</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国互联科技股票A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>008891</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安信价值成长混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001643</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>006366</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000362</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国泰聚信价值优势灵活配置混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000547</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建信健康民生混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝盈优势产业混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001703</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银华沪港深增长股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002943</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发多因子混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003567</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏行业景气混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>004616</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中欧电子信息产业沪港深股票A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交银持续成长主题混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融通新能源汽车主题精选灵活配置混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005743</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长安裕隆混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>006154</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安制造先锋混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>006314</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>007177</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙商智能行业优选混合发起式A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银河新动能混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>007305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国联安新科技混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富科技创新混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝盈研究精选混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>008245</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆信永丰致优A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>008271</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大成优势企业混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>008347</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信建投甄选混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>008793</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博道嘉元混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>008928</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰达消费红利指数A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>009092</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国新材料新能源混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>009140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银新兴制造混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景顺长城核心招景混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010126</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天弘中证科技100指数增强A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大摩新兴产业股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010371</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大成成长进取混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011460</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>006392</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011630</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东财有色增强A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>012126</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005680</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财通资管价值成长混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001569</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰信国策驱动灵活配置混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇丰晋信智造先锋A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业安保优选混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>008537</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴银研究精选股票A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>009147</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建信新能源行业股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信保诚创新成长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰达宏利新能源股票A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发多元新兴股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农银新能源主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002340</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国价值优势混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉合睿金混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000308</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建信创新中国混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011377</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创金合信积极成长股票A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉实先进制造股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>162719</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011807</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安研究精选混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发道琼斯石油指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011667</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东财高端制造增强A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇丰晋信核心成长混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>012519</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大成核心趋势混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>012894</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天弘中证科创创业50指数A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001054</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银新金融股票A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005821</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万家新机遇龙头企业混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000209</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信诚新兴产业混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011956</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹏华新能源精选混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>012255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国高质量混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>012387</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国金ESG持续增长A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011874</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博时先进制造混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010361</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉实品质优选股票A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博时半导体主题混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>012650</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001520</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国投瑞银研究精选股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001410</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>166301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华商新趋势优选灵活配置混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙商新思维混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>169104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方红睿满沪港深混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>290011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰信中小盘精选混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>290014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰信现代服务业混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>375010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上投摩根中国优势混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>519702</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交银趋势混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>673060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西部利得景瑞混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>920003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中金新锐股票A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国美丽中国混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信达澳银新能源产业股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东财消费电子指数增强A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001822</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010421</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海富通消费优选混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010570</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新沃创新领航混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010611</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万家战略发展产业混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010622</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒越成长精选混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010874</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰康品质生活混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010887</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方消费升级混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010963</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信达澳银周期动力混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国泰价值先锋股票A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011046</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国优质企业混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005927</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创金合信新能源汽车股票A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011155</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金鹰责任投资混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011216</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011229</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创金合信数字经济主题股票A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011251</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安聚嘉精选混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011328</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景顺长城新能源产业股票A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000259</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农银区间收益混合</t>
+  </si>
+  <si>
+    <t>富国清洁能源产业灵活配置混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002593</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>012319</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>166019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中欧价值智选混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>320006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺安灵活配置混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002983</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长信国防军工量化混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002251</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏军工安全混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000689</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前海开源新经济混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>004390</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安转型创新混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华商智能生活灵活配置混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010676</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大保德信新机遇混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大保德信智能汽车主题股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>013339</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创金合信芯片产业股票发起A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>006813</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博时汇悦回报混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003670</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中融物联网主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005598</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发中小盘精选混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>519918</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏兴和混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005809</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前海开源裕源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011704</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>501064</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国泰价值优选灵活配置混合(LOF)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>004685</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011142</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>014232</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>014530</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>012445</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>006593</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博道中证500增强A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005994</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国投瑞银中证500指数量化增强A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002076</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙商中证500指数增强A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>008099</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发价值领先混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>012262</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华宝可持续发展混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>013426</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝莱德中国新视野混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>008491</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万家周期优势企业混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金元顺安元启灵活配置混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创金合信新材料新能源股票A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>013812</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景顺景气进取混合A类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博时专精特新主题混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏MSCI中国A50互联互通ETF发起式联接A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001691</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方香港成长</t>
+  </si>
+  <si>
+    <t>011938</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>164906</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交银中证海外中国互联网指数</t>
+  </si>
+  <si>
+    <t>002810</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>580006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010562</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010391</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011578</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>007983</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005983</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>007750</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001039</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金信转型创新成长混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东吴新经济A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>014339</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长江智能制造混合型发起式A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000756</t>
+  </si>
+  <si>
+    <t>003298</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>013851</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>519185</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001473</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-38%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-34%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-36%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-54%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-37%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-46%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-36%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-14%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-13%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-27%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-38%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-36%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-41%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-31%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-33%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-23%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建信潜力新蓝筹股票A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉实物流产业股票A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信建投低碳成长混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万家精选混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建信大安全战略精选股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商专精特新股票A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创金合信专精特新股票发起A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>008227</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>永赢竞争力精选混合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>007549</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中泰开阳价值优选混合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>005668</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>009707</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001018</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>易方达新经济灵活配置混合</t>
+    <t>014185</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>014736</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -98,285 +1353,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>006527</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国优质发展混合A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>005855</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中科沃土沃瑞混合A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>007355</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大成纳斯达克100指数(QDII)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001487</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001279</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中海积极增利混合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前海开源公共卫生股票A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010322</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>007203</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国红利精选混合(QDII)人民币</t>
-  </si>
-  <si>
-    <t>信达澳银新能源精选混合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001224</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中邮新思路灵活配置混合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001856</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹏华创新成长混合A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>007139</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国民裕进取沪港深成长精选混合A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>012079</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000834</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>009108</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>006373</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>008763</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天弘越南市场A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>009975</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华宝美国消费C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>160140</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美国REIT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>161128</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标普科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>易方达环保主题灵活配置混合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中融策略优选混合A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>003745</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>006348</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>银华盛利混合发起式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>006751</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国互联科技股票A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>008891</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安信价值成长混合A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001643</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>006366</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000362</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国泰聚信价值优势灵活配置混合A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000547</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建信健康民生混合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝盈优势产业混合A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001703</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>银华沪港深增长股票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002943</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发多因子混合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>003567</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华夏行业景气混合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>004616</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中欧电子信息产业沪港深股票A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>005001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交银持续成长主题混合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>融通新能源汽车主题精选灵活配置混合A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>005743</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长安裕隆混合A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>006154</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华安制造先锋混合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>006314</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>007177</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙商智能行业优选混合发起式A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>银河新动能混合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>007305</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国联安新科技混合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇添富科技创新混合A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>广发优势增长股票</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -385,992 +1361,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>宝盈研究精选混合A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>008245</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圆信永丰致优A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>008271</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大成优势企业混合A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>008347</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中信建投甄选混合A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>008793</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博道嘉元混合A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>008928</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰达消费红利指数A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>009092</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国新材料新能源混合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>009140</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工银新兴制造混合A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010108</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>景顺长城核心招景混合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010126</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>平安价值成长混合A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>010202</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天弘中证科技100指数增强A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大摩新兴产业股票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010371</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大成成长进取混合A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>011460</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>011601</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>006392</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>011630</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东财有色增强A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>012126</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>005680</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财通资管价值成长混合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001569</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰信国策驱动灵活配置混合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇丰晋信智造先锋A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴业安保优选混合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>008537</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴银研究精选股票A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>009147</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建信新能源行业股票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中信保诚创新成长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰达宏利新能源股票A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发多元新兴股票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>易方达战略新兴产业股票A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>002190</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农银新能源主题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002340</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国价值优势混合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>005090</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉合睿金混合A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000308</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建信创新中国混合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>011377</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创金合信积极成长股票A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉实先进制造股票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>162719</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>011807</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安研究精选混合A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发道琼斯石油指数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>011667</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东财高端制造增强A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇丰晋信核心成长混合A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>012519</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大成核心趋势混合A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>012894</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天弘中证科创创业50指数A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001054</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工银新金融股票A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>005821</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万家新机遇龙头企业混合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000209</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信诚新兴产业混合A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>011956</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹏华新能源精选混合A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>012255</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国高质量混合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>012387</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国金ESG持续增长A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>011874</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博时先进制造混合A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010361</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉实品质优选股票A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博时半导体主题混合A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>012650</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001520</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国投瑞银研究精选股票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001410</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>166301</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华商新趋势优选灵活配置混合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙商新思维混合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>169104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东方红睿满沪港深混合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>290011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰信中小盘精选混合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>290014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰信现代服务业混合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>375010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上投摩根中国优势混合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>519702</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交银趋势混合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>673060</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西部利得景瑞混合A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>920003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中金新锐股票A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国美丽中国混合A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信达澳银新能源产业股票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东财消费电子指数增强A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001822</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010421</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海富通消费优选混合A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>永赢成长领航混合A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>010570</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新沃创新领航混合A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010611</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万家战略发展产业混合A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010622</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恒越成长精选混合A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010874</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰康品质生活混合A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010887</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南方消费升级混合A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010963</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信达澳银周期动力混合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>011042</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国泰价值先锋股票A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>011046</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国优质企业混合A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>005927</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创金合信新能源汽车股票A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>011155</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金鹰责任投资混合A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>011216</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>南方优质企业混合A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>011229</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创金合信数字经济主题股票A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>011251</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华安聚嘉精选混合A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>011328</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>景顺长城新能源产业股票A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000259</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农银区间收益混合</t>
-  </si>
-  <si>
-    <t>富国清洁能源产业灵活配置混合A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002593</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>012319</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>166019</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中欧价值智选混合A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>320006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诺安灵活配置混合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002983</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长信国防军工量化混合A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002251</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华夏军工安全混合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000689</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前海开源新经济混合A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>004390</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安转型创新混合A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华商智能生活灵活配置混合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010676</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光大保德信新机遇混合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>011104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光大保德信智能汽车主题股票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>013339</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创金合信芯片产业股票发起A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>006813</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博时汇悦回报混合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>003670</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中融物联网主题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>005598</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发中小盘精选混合A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>519918</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华夏兴和混合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>005809</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前海开源裕源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>011704</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>东方阿尔法产业先锋混合A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>501064</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国泰价值优选灵活配置混合(LOF)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>004685</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>011142</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>014232</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>014530</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>012445</t>
+    <t>博时新能源汽车主题混合A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>华富新能源股票型发起式</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>006593</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博道中证500增强A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>005994</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国投瑞银中证500指数量化增强A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002076</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙商中证500指数增强A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>008099</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发价值领先混合A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>012262</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华宝可持续发展混合A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>013426</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贝莱德中国新视野混合A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>008491</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万家周期优势企业混合A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金元顺安元启灵活配置混合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创金合信新材料新能源股票A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>013812</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>景顺景气进取混合A类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博时专精特新主题混合A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华夏MSCI中国A50互联互通ETF发起式联接A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001691</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南方香港成长</t>
-  </si>
-  <si>
-    <t>011938</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博时新能源汽车主题混合A</t>
-  </si>
-  <si>
-    <t>164906</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交银中证海外中国互联网指数</t>
-  </si>
-  <si>
-    <t>002810</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>580006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010562</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010391</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>011578</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>007983</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>005983</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>007750</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001039</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金信转型创新成长混合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东吴新经济A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>014339</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长江智能制造混合型发起式A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建信潜力新蓝筹股票A</t>
-  </si>
-  <si>
-    <t>000756</t>
-  </si>
-  <si>
-    <t>003298</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>013851</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉实物流产业股票A</t>
-  </si>
-  <si>
-    <t>中信建投低碳成长混合A</t>
-  </si>
-  <si>
-    <t>519185</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万家精选混合A</t>
-  </si>
-  <si>
-    <t>001473</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建信大安全战略精选股票</t>
-  </si>
-  <si>
-    <t>-38%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-34%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-36%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-54%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-37%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-46%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-36%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-14%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-13%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-27%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-38%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-36%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-41%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-31%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-33%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-23%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商专精特新股票A</t>
-  </si>
-  <si>
-    <t>014185</t>
   </si>
 </sst>
 </file>
@@ -1456,18 +1472,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1482,7 +1492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1497,7 +1507,6 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1774,10 +1783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z239"/>
+  <dimension ref="A1:Z222"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.59765625" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -1814,16 +1823,16 @@
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -1833,16 +1842,16 @@
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1852,16 +1861,16 @@
     </row>
     <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1871,13 +1880,13 @@
     </row>
     <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
@@ -1890,16 +1899,16 @@
     </row>
     <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1909,16 +1918,16 @@
     </row>
     <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1928,16 +1937,16 @@
     </row>
     <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1947,16 +1956,16 @@
     </row>
     <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1966,16 +1975,16 @@
     </row>
     <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="2"/>
@@ -1985,16 +1994,16 @@
     </row>
     <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -2004,16 +2013,16 @@
     </row>
     <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -2023,10 +2032,10 @@
     </row>
     <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -2036,10 +2045,10 @@
     </row>
     <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="1"/>
@@ -2051,10 +2060,10 @@
     </row>
     <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="2"/>
@@ -2063,19 +2072,19 @@
     </row>
     <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="2"/>
@@ -2084,19 +2093,19 @@
     </row>
     <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="2"/>
@@ -2105,19 +2114,19 @@
     </row>
     <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>16</v>
+        <v>331</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="2"/>
@@ -2126,19 +2135,19 @@
     </row>
     <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>87</v>
+        <v>332</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="2"/>
@@ -2147,19 +2156,19 @@
     </row>
     <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>88</v>
+        <v>333</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="2"/>
@@ -2168,19 +2177,19 @@
     </row>
     <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>107</v>
+        <v>334</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -2189,19 +2198,19 @@
     </row>
     <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>132</v>
+        <v>335</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="F22" s="1"/>
       <c r="H22" s="1"/>
@@ -2209,19 +2218,19 @@
     </row>
     <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>199</v>
+        <v>336</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="F23" s="1"/>
       <c r="H23" s="1"/>
@@ -2229,19 +2238,19 @@
     </row>
     <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>221</v>
+        <v>337</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -2253,16 +2262,16 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -2277,13 +2286,13 @@
         <v>6</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>263</v>
+        <v>338</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="4"/>
@@ -2292,19 +2301,19 @@
     </row>
     <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="4"/>
@@ -2313,19 +2322,19 @@
     </row>
     <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>271</v>
+        <v>261</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="4"/>
@@ -2340,13 +2349,13 @@
         <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="4"/>
@@ -2355,19 +2364,19 @@
     </row>
     <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="4"/>
@@ -2376,19 +2385,19 @@
     </row>
     <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="E31" s="1" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="4"/>
@@ -2397,10 +2406,10 @@
     </row>
     <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2412,10 +2421,10 @@
     </row>
     <row r="33" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2427,10 +2436,10 @@
     </row>
     <row r="34" spans="1:26" ht="20" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -2451,10 +2460,10 @@
     </row>
     <row r="35" spans="1:26" ht="20" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -2482,10 +2491,10 @@
     </row>
     <row r="36" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -2496,10 +2505,10 @@
     </row>
     <row r="37" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -2507,10 +2516,10 @@
     </row>
     <row r="38" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="2"/>
@@ -2520,10 +2529,10 @@
     </row>
     <row r="39" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="2"/>
@@ -2533,10 +2542,10 @@
     </row>
     <row r="40" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="2"/>
@@ -2546,10 +2555,10 @@
     </row>
     <row r="41" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2560,30 +2569,30 @@
     </row>
     <row r="42" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -2591,10 +2600,10 @@
     </row>
     <row r="45" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -2602,10 +2611,10 @@
     </row>
     <row r="46" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2613,10 +2622,10 @@
     </row>
     <row r="47" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -2626,10 +2635,10 @@
     </row>
     <row r="48" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -2639,10 +2648,10 @@
     </row>
     <row r="49" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -2652,10 +2661,10 @@
     </row>
     <row r="50" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2667,10 +2676,10 @@
     </row>
     <row r="51" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2682,10 +2691,10 @@
     </row>
     <row r="52" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2697,10 +2706,10 @@
     </row>
     <row r="53" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -2710,10 +2719,10 @@
     </row>
     <row r="54" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2725,10 +2734,10 @@
     </row>
     <row r="55" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2740,10 +2749,10 @@
     </row>
     <row r="56" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -2755,10 +2764,10 @@
     </row>
     <row r="57" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -2770,10 +2779,10 @@
     </row>
     <row r="58" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -2785,10 +2794,10 @@
     </row>
     <row r="59" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -2799,10 +2808,10 @@
     </row>
     <row r="60" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -2814,10 +2823,10 @@
     </row>
     <row r="61" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -2827,19 +2836,19 @@
     </row>
     <row r="62" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E62" s="2"/>
     </row>
     <row r="63" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -2849,10 +2858,10 @@
     </row>
     <row r="64" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -2862,10 +2871,10 @@
     </row>
     <row r="65" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -2875,10 +2884,10 @@
     </row>
     <row r="66" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -2888,10 +2897,10 @@
     </row>
     <row r="67" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2903,10 +2912,10 @@
     </row>
     <row r="68" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2918,10 +2927,10 @@
     </row>
     <row r="69" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -2931,10 +2940,10 @@
     </row>
     <row r="70" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2946,10 +2955,10 @@
     </row>
     <row r="71" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C71" s="1"/>
       <c r="E71" s="2"/>
@@ -2960,10 +2969,10 @@
     </row>
     <row r="72" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C72" s="1"/>
       <c r="E72" s="2"/>
@@ -2974,10 +2983,10 @@
     </row>
     <row r="73" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
@@ -2987,10 +2996,10 @@
     </row>
     <row r="74" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -3000,10 +3009,10 @@
     </row>
     <row r="75" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
@@ -3013,10 +3022,10 @@
     </row>
     <row r="76" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -3026,10 +3035,10 @@
     </row>
     <row r="77" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -3039,10 +3048,10 @@
     </row>
     <row r="78" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
@@ -3052,10 +3061,10 @@
     </row>
     <row r="79" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
@@ -3065,10 +3074,10 @@
     </row>
     <row r="80" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
@@ -3077,10 +3086,10 @@
     </row>
     <row r="81" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -3089,10 +3098,10 @@
     </row>
     <row r="82" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="2"/>
@@ -3102,28 +3111,28 @@
     </row>
     <row r="83" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E83" s="6"/>
     </row>
     <row r="84" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E84" s="6"/>
     </row>
     <row r="85" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E85" s="6"/>
       <c r="G85" s="7"/>
@@ -3132,10 +3141,10 @@
     </row>
     <row r="86" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E86" s="6"/>
       <c r="G86" s="7"/>
@@ -3144,10 +3153,10 @@
     </row>
     <row r="87" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E87" s="6"/>
       <c r="G87" s="7"/>
@@ -3159,7 +3168,7 @@
         <v>166801</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E88" s="6"/>
       <c r="G88" s="7"/>
@@ -3168,10 +3177,10 @@
     </row>
     <row r="89" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G89" s="7"/>
       <c r="H89" s="2"/>
@@ -3179,10 +3188,10 @@
     </row>
     <row r="90" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G90" s="7"/>
       <c r="H90" s="2"/>
@@ -3190,10 +3199,10 @@
     </row>
     <row r="91" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G91" s="7"/>
       <c r="H91" s="2"/>
@@ -3201,45 +3210,45 @@
     </row>
     <row r="92" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E93" s="2"/>
     </row>
     <row r="94" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E94" s="2"/>
     </row>
     <row r="95" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E95" s="2"/>
     </row>
     <row r="96" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
@@ -3249,10 +3258,10 @@
     </row>
     <row r="97" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
@@ -3262,10 +3271,10 @@
     </row>
     <row r="98" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
@@ -3274,10 +3283,10 @@
     </row>
     <row r="99" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
@@ -3286,10 +3295,10 @@
     </row>
     <row r="100" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -3298,288 +3307,292 @@
     </row>
     <row r="101" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>8</v>
+        <v>328</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C134" s="11"/>
+        <v>234</v>
+      </c>
+      <c r="C134" s="10"/>
     </row>
     <row r="135" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
+      <c r="A136" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="137" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
@@ -3924,74 +3937,6 @@
     <row r="222" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
-    </row>
-    <row r="223" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
-    </row>
-    <row r="224" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
-    </row>
-    <row r="225" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A225" s="1"/>
-      <c r="B225" s="1"/>
-    </row>
-    <row r="226" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
-    </row>
-    <row r="227" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
-    </row>
-    <row r="228" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A228" s="1"/>
-      <c r="B228" s="1"/>
-    </row>
-    <row r="229" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A229" s="1"/>
-      <c r="B229" s="1"/>
-    </row>
-    <row r="230" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A230" s="1"/>
-      <c r="B230" s="1"/>
-    </row>
-    <row r="231" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A231" s="1"/>
-      <c r="B231" s="1"/>
-    </row>
-    <row r="232" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A232" s="1"/>
-      <c r="B232" s="1"/>
-    </row>
-    <row r="233" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A233" s="1"/>
-      <c r="B233" s="1"/>
-    </row>
-    <row r="234" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A234" s="1"/>
-      <c r="B234" s="1"/>
-    </row>
-    <row r="235" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A235" s="1"/>
-      <c r="B235" s="1"/>
-    </row>
-    <row r="236" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A236" s="1"/>
-      <c r="B236" s="1"/>
-    </row>
-    <row r="237" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A237" s="1"/>
-      <c r="B237" s="1"/>
-    </row>
-    <row r="238" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A238" s="1"/>
-      <c r="B238" s="1"/>
-    </row>
-    <row r="239" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A239" s="1"/>
-      <c r="B239" s="1"/>
     </row>
   </sheetData>
   <sortState ref="C15:D25">

--- a/JiJin.xlsx
+++ b/JiJin.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16520" yWindow="1180" windowWidth="16220" windowHeight="17800"/>
+    <workbookView xWindow="21680" yWindow="1940" windowWidth="16220" windowHeight="17800"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="335">
   <si>
     <t>代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1342,6 +1342,20 @@
   </si>
   <si>
     <t>信澳新能源产业股票</t>
+  </si>
+  <si>
+    <t>001678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英大国企改革</t>
+  </si>
+  <si>
+    <t>016500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏半导体龙头混合发起式A</t>
   </si>
 </sst>
 </file>
@@ -1722,10 +1736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z159"/>
+  <dimension ref="A1:Z157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114:XFD114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.59765625" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -3387,12 +3401,20 @@
       </c>
     </row>
     <row r="113" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
+      <c r="A113" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="114" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
+      <c r="A114" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="115" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
@@ -3565,14 +3587,6 @@
     <row r="157" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
-    </row>
-    <row r="158" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
-    </row>
-    <row r="159" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
     </row>
   </sheetData>
   <sortState ref="C15:D25">
